--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(Batch)_BA10601_Intra-period_project_list_output_batch.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(Batch)_BA10601_Intra-period_project_list_output_batch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6F137-7F2F-4539-953E-38BF00F7DF26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E476929-6E43-4738-8D9E-EEC5210F96F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1813,12 +1813,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1843,179 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1855,33 +2034,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1891,151 +2043,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2064,14 +2079,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2094,24 +2196,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2145,88 +2229,91 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,94 +2334,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6292,12 +6292,12 @@
       <c r="F25" s="151"/>
       <c r="G25" s="151"/>
       <c r="H25" s="151"/>
-      <c r="I25" s="164">
+      <c r="I25" s="166">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44845</v>
       </c>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
       <c r="L25" s="152"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6385,44 +6385,44 @@
       <c r="N34" s="160"/>
       <c r="O34" s="160"/>
       <c r="P34" s="160"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O35" s="160"/>
       <c r="P35" s="160"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
+      <c r="Q35" s="168"/>
+      <c r="R35" s="168"/>
+      <c r="S35" s="168"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O36" s="167"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="167"/>
-      <c r="R36" s="166"/>
+      <c r="O36" s="169"/>
+      <c r="P36" s="168"/>
+      <c r="Q36" s="169"/>
+      <c r="R36" s="168"/>
       <c r="S36" s="161"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O37" s="168"/>
-      <c r="P37" s="169"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="169"/>
-      <c r="S37" s="168"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="171"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="170"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="169"/>
-      <c r="P38" s="169"/>
-      <c r="Q38" s="169"/>
-      <c r="R38" s="169"/>
-      <c r="S38" s="169"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="171"/>
+      <c r="R38" s="171"/>
+      <c r="S38" s="171"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="169"/>
-      <c r="S39" s="169"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="171"/>
+      <c r="R39" s="171"/>
+      <c r="S39" s="171"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6935,57 +6935,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="185" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="211" t="s">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="170">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="231">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
@@ -6993,53 +6993,53 @@
       <c r="AN1" s="5"/>
     </row>
     <row r="2" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="185" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="173" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="170">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="231">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
@@ -7047,45 +7047,45 @@
       <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="185" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="172"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="231"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -7122,1040 +7122,1040 @@
       <c r="A7" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="223"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="206"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="206"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="188" t="s">
+      <c r="R7" s="206"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="206"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="206"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="206"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="206"/>
+      <c r="AB7" s="206"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="206"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="206"/>
+      <c r="AH7" s="206"/>
+      <c r="AI7" s="207"/>
     </row>
     <row r="8" spans="1:40" s="141" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="145">
         <v>1</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226">
+      <c r="C8" s="212"/>
+      <c r="D8" s="213">
         <v>43634</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="229" t="s">
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="230"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232" t="s">
+      <c r="H8" s="217"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="233"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="233"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="235" t="s">
+      <c r="K8" s="220"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="220"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="236"/>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="236"/>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="237"/>
-      <c r="AF8" s="232" t="s">
+      <c r="R8" s="223"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="224"/>
+      <c r="AF8" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="233"/>
-      <c r="AH8" s="233"/>
-      <c r="AI8" s="234"/>
+      <c r="AG8" s="220"/>
+      <c r="AH8" s="220"/>
+      <c r="AI8" s="221"/>
     </row>
     <row r="9" spans="1:40" s="141" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="146">
         <v>2</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193">
+      <c r="C9" s="196"/>
+      <c r="D9" s="197">
         <v>44845</v>
       </c>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="196" t="s">
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="182" t="s">
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182" t="s">
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="227"/>
+      <c r="Q9" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="229"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="229"/>
+      <c r="Y9" s="229"/>
+      <c r="Z9" s="229"/>
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="229"/>
+      <c r="AC9" s="229"/>
+      <c r="AD9" s="229"/>
+      <c r="AE9" s="230"/>
+      <c r="AF9" s="225"/>
+      <c r="AG9" s="226"/>
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="227"/>
     </row>
     <row r="10" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="146"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="226"/>
+      <c r="N10" s="226"/>
+      <c r="O10" s="226"/>
+      <c r="P10" s="227"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="229"/>
+      <c r="S10" s="229"/>
+      <c r="T10" s="229"/>
+      <c r="U10" s="229"/>
+      <c r="V10" s="229"/>
+      <c r="W10" s="229"/>
+      <c r="X10" s="229"/>
+      <c r="Y10" s="229"/>
+      <c r="Z10" s="229"/>
+      <c r="AA10" s="229"/>
+      <c r="AB10" s="229"/>
+      <c r="AC10" s="229"/>
+      <c r="AD10" s="229"/>
+      <c r="AE10" s="230"/>
+      <c r="AF10" s="225"/>
+      <c r="AG10" s="226"/>
+      <c r="AH10" s="226"/>
+      <c r="AI10" s="227"/>
     </row>
     <row r="11" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="146"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="226"/>
+      <c r="M11" s="226"/>
+      <c r="N11" s="226"/>
+      <c r="O11" s="226"/>
+      <c r="P11" s="227"/>
+      <c r="Q11" s="228"/>
+      <c r="R11" s="229"/>
+      <c r="S11" s="229"/>
+      <c r="T11" s="229"/>
+      <c r="U11" s="229"/>
+      <c r="V11" s="229"/>
+      <c r="W11" s="229"/>
+      <c r="X11" s="229"/>
+      <c r="Y11" s="229"/>
+      <c r="Z11" s="229"/>
+      <c r="AA11" s="229"/>
+      <c r="AB11" s="229"/>
+      <c r="AC11" s="229"/>
+      <c r="AD11" s="229"/>
+      <c r="AE11" s="230"/>
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="226"/>
+      <c r="AH11" s="226"/>
+      <c r="AI11" s="227"/>
     </row>
     <row r="12" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="146"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="227"/>
+      <c r="Q12" s="228"/>
+      <c r="R12" s="229"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="229"/>
+      <c r="V12" s="229"/>
+      <c r="W12" s="229"/>
+      <c r="X12" s="229"/>
+      <c r="Y12" s="229"/>
+      <c r="Z12" s="229"/>
+      <c r="AA12" s="229"/>
+      <c r="AB12" s="229"/>
+      <c r="AC12" s="229"/>
+      <c r="AD12" s="229"/>
+      <c r="AE12" s="230"/>
+      <c r="AF12" s="225"/>
+      <c r="AG12" s="226"/>
+      <c r="AH12" s="226"/>
+      <c r="AI12" s="227"/>
     </row>
     <row r="13" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="146"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="226"/>
+      <c r="P13" s="227"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="229"/>
+      <c r="S13" s="229"/>
+      <c r="T13" s="229"/>
+      <c r="U13" s="229"/>
+      <c r="V13" s="229"/>
+      <c r="W13" s="229"/>
+      <c r="X13" s="229"/>
+      <c r="Y13" s="229"/>
+      <c r="Z13" s="229"/>
+      <c r="AA13" s="229"/>
+      <c r="AB13" s="229"/>
+      <c r="AC13" s="229"/>
+      <c r="AD13" s="229"/>
+      <c r="AE13" s="230"/>
+      <c r="AF13" s="225"/>
+      <c r="AG13" s="226"/>
+      <c r="AH13" s="226"/>
+      <c r="AI13" s="227"/>
     </row>
     <row r="14" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="146"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="226"/>
+      <c r="P14" s="227"/>
+      <c r="Q14" s="228"/>
+      <c r="R14" s="229"/>
+      <c r="S14" s="229"/>
+      <c r="T14" s="229"/>
+      <c r="U14" s="229"/>
+      <c r="V14" s="229"/>
+      <c r="W14" s="229"/>
+      <c r="X14" s="229"/>
+      <c r="Y14" s="229"/>
+      <c r="Z14" s="229"/>
+      <c r="AA14" s="229"/>
+      <c r="AB14" s="229"/>
+      <c r="AC14" s="229"/>
+      <c r="AD14" s="229"/>
+      <c r="AE14" s="230"/>
+      <c r="AF14" s="225"/>
+      <c r="AG14" s="226"/>
+      <c r="AH14" s="226"/>
+      <c r="AI14" s="227"/>
     </row>
     <row r="15" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="146"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="227"/>
+      <c r="Q15" s="228"/>
+      <c r="R15" s="229"/>
+      <c r="S15" s="229"/>
+      <c r="T15" s="229"/>
+      <c r="U15" s="229"/>
+      <c r="V15" s="229"/>
+      <c r="W15" s="229"/>
+      <c r="X15" s="229"/>
+      <c r="Y15" s="229"/>
+      <c r="Z15" s="229"/>
+      <c r="AA15" s="229"/>
+      <c r="AB15" s="229"/>
+      <c r="AC15" s="229"/>
+      <c r="AD15" s="229"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="225"/>
+      <c r="AG15" s="226"/>
+      <c r="AH15" s="226"/>
+      <c r="AI15" s="227"/>
     </row>
     <row r="16" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="146"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="228"/>
+      <c r="R16" s="229"/>
+      <c r="S16" s="229"/>
+      <c r="T16" s="229"/>
+      <c r="U16" s="229"/>
+      <c r="V16" s="229"/>
+      <c r="W16" s="229"/>
+      <c r="X16" s="229"/>
+      <c r="Y16" s="229"/>
+      <c r="Z16" s="229"/>
+      <c r="AA16" s="229"/>
+      <c r="AB16" s="229"/>
+      <c r="AC16" s="229"/>
+      <c r="AD16" s="229"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="225"/>
+      <c r="AG16" s="226"/>
+      <c r="AH16" s="226"/>
+      <c r="AI16" s="227"/>
     </row>
     <row r="17" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="146"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="228"/>
+      <c r="R17" s="229"/>
+      <c r="S17" s="229"/>
+      <c r="T17" s="229"/>
+      <c r="U17" s="229"/>
+      <c r="V17" s="229"/>
+      <c r="W17" s="229"/>
+      <c r="X17" s="229"/>
+      <c r="Y17" s="229"/>
+      <c r="Z17" s="229"/>
+      <c r="AA17" s="229"/>
+      <c r="AB17" s="229"/>
+      <c r="AC17" s="229"/>
+      <c r="AD17" s="229"/>
+      <c r="AE17" s="230"/>
+      <c r="AF17" s="225"/>
+      <c r="AG17" s="226"/>
+      <c r="AH17" s="226"/>
+      <c r="AI17" s="227"/>
     </row>
     <row r="18" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="146"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="227"/>
+      <c r="Q18" s="228"/>
+      <c r="R18" s="229"/>
+      <c r="S18" s="229"/>
+      <c r="T18" s="229"/>
+      <c r="U18" s="229"/>
+      <c r="V18" s="229"/>
+      <c r="W18" s="229"/>
+      <c r="X18" s="229"/>
+      <c r="Y18" s="229"/>
+      <c r="Z18" s="229"/>
+      <c r="AA18" s="229"/>
+      <c r="AB18" s="229"/>
+      <c r="AC18" s="229"/>
+      <c r="AD18" s="229"/>
+      <c r="AE18" s="230"/>
+      <c r="AF18" s="225"/>
+      <c r="AG18" s="226"/>
+      <c r="AH18" s="226"/>
+      <c r="AI18" s="227"/>
     </row>
     <row r="19" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="146"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="227"/>
+      <c r="Q19" s="228"/>
+      <c r="R19" s="229"/>
+      <c r="S19" s="229"/>
+      <c r="T19" s="229"/>
+      <c r="U19" s="229"/>
+      <c r="V19" s="229"/>
+      <c r="W19" s="229"/>
+      <c r="X19" s="229"/>
+      <c r="Y19" s="229"/>
+      <c r="Z19" s="229"/>
+      <c r="AA19" s="229"/>
+      <c r="AB19" s="229"/>
+      <c r="AC19" s="229"/>
+      <c r="AD19" s="229"/>
+      <c r="AE19" s="230"/>
+      <c r="AF19" s="225"/>
+      <c r="AG19" s="226"/>
+      <c r="AH19" s="226"/>
+      <c r="AI19" s="227"/>
     </row>
     <row r="20" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="146"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="227"/>
+      <c r="Q20" s="228"/>
+      <c r="R20" s="229"/>
+      <c r="S20" s="229"/>
+      <c r="T20" s="229"/>
+      <c r="U20" s="229"/>
+      <c r="V20" s="229"/>
+      <c r="W20" s="229"/>
+      <c r="X20" s="229"/>
+      <c r="Y20" s="229"/>
+      <c r="Z20" s="229"/>
+      <c r="AA20" s="229"/>
+      <c r="AB20" s="229"/>
+      <c r="AC20" s="229"/>
+      <c r="AD20" s="229"/>
+      <c r="AE20" s="230"/>
+      <c r="AF20" s="225"/>
+      <c r="AG20" s="226"/>
+      <c r="AH20" s="226"/>
+      <c r="AI20" s="227"/>
     </row>
     <row r="21" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="146"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="226"/>
+      <c r="M21" s="226"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="227"/>
+      <c r="Q21" s="228"/>
+      <c r="R21" s="229"/>
+      <c r="S21" s="229"/>
+      <c r="T21" s="229"/>
+      <c r="U21" s="229"/>
+      <c r="V21" s="229"/>
+      <c r="W21" s="229"/>
+      <c r="X21" s="229"/>
+      <c r="Y21" s="229"/>
+      <c r="Z21" s="229"/>
+      <c r="AA21" s="229"/>
+      <c r="AB21" s="229"/>
+      <c r="AC21" s="229"/>
+      <c r="AD21" s="229"/>
+      <c r="AE21" s="230"/>
+      <c r="AF21" s="225"/>
+      <c r="AG21" s="226"/>
+      <c r="AH21" s="226"/>
+      <c r="AI21" s="227"/>
     </row>
     <row r="22" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="146"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226"/>
+      <c r="P22" s="227"/>
+      <c r="Q22" s="228"/>
+      <c r="R22" s="229"/>
+      <c r="S22" s="229"/>
+      <c r="T22" s="229"/>
+      <c r="U22" s="229"/>
+      <c r="V22" s="229"/>
+      <c r="W22" s="229"/>
+      <c r="X22" s="229"/>
+      <c r="Y22" s="229"/>
+      <c r="Z22" s="229"/>
+      <c r="AA22" s="229"/>
+      <c r="AB22" s="229"/>
+      <c r="AC22" s="229"/>
+      <c r="AD22" s="229"/>
+      <c r="AE22" s="230"/>
+      <c r="AF22" s="225"/>
+      <c r="AG22" s="226"/>
+      <c r="AH22" s="226"/>
+      <c r="AI22" s="227"/>
     </row>
     <row r="23" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="146"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="226"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="226"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="228"/>
+      <c r="R23" s="229"/>
+      <c r="S23" s="229"/>
+      <c r="T23" s="229"/>
+      <c r="U23" s="229"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="229"/>
+      <c r="Y23" s="229"/>
+      <c r="Z23" s="229"/>
+      <c r="AA23" s="229"/>
+      <c r="AB23" s="229"/>
+      <c r="AC23" s="229"/>
+      <c r="AD23" s="229"/>
+      <c r="AE23" s="230"/>
+      <c r="AF23" s="225"/>
+      <c r="AG23" s="226"/>
+      <c r="AH23" s="226"/>
+      <c r="AI23" s="227"/>
     </row>
     <row r="24" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="146"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="226"/>
+      <c r="N24" s="226"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="227"/>
+      <c r="Q24" s="228"/>
+      <c r="R24" s="229"/>
+      <c r="S24" s="229"/>
+      <c r="T24" s="229"/>
+      <c r="U24" s="229"/>
+      <c r="V24" s="229"/>
+      <c r="W24" s="229"/>
+      <c r="X24" s="229"/>
+      <c r="Y24" s="229"/>
+      <c r="Z24" s="229"/>
+      <c r="AA24" s="229"/>
+      <c r="AB24" s="229"/>
+      <c r="AC24" s="229"/>
+      <c r="AD24" s="229"/>
+      <c r="AE24" s="230"/>
+      <c r="AF24" s="225"/>
+      <c r="AG24" s="226"/>
+      <c r="AH24" s="226"/>
+      <c r="AI24" s="227"/>
     </row>
     <row r="25" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="146"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="226"/>
+      <c r="M25" s="226"/>
+      <c r="N25" s="226"/>
+      <c r="O25" s="226"/>
+      <c r="P25" s="227"/>
+      <c r="Q25" s="228"/>
+      <c r="R25" s="229"/>
+      <c r="S25" s="229"/>
+      <c r="T25" s="229"/>
+      <c r="U25" s="229"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="229"/>
+      <c r="X25" s="229"/>
+      <c r="Y25" s="229"/>
+      <c r="Z25" s="229"/>
+      <c r="AA25" s="229"/>
+      <c r="AB25" s="229"/>
+      <c r="AC25" s="229"/>
+      <c r="AD25" s="229"/>
+      <c r="AE25" s="230"/>
+      <c r="AF25" s="225"/>
+      <c r="AG25" s="226"/>
+      <c r="AH25" s="226"/>
+      <c r="AI25" s="227"/>
     </row>
     <row r="26" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="146"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="226"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="226"/>
+      <c r="P26" s="227"/>
+      <c r="Q26" s="228"/>
+      <c r="R26" s="229"/>
+      <c r="S26" s="229"/>
+      <c r="T26" s="229"/>
+      <c r="U26" s="229"/>
+      <c r="V26" s="229"/>
+      <c r="W26" s="229"/>
+      <c r="X26" s="229"/>
+      <c r="Y26" s="229"/>
+      <c r="Z26" s="229"/>
+      <c r="AA26" s="229"/>
+      <c r="AB26" s="229"/>
+      <c r="AC26" s="229"/>
+      <c r="AD26" s="229"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="225"/>
+      <c r="AG26" s="226"/>
+      <c r="AH26" s="226"/>
+      <c r="AI26" s="227"/>
     </row>
     <row r="27" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="146"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="227"/>
+      <c r="Q27" s="228"/>
+      <c r="R27" s="229"/>
+      <c r="S27" s="229"/>
+      <c r="T27" s="229"/>
+      <c r="U27" s="229"/>
+      <c r="V27" s="229"/>
+      <c r="W27" s="229"/>
+      <c r="X27" s="229"/>
+      <c r="Y27" s="229"/>
+      <c r="Z27" s="229"/>
+      <c r="AA27" s="229"/>
+      <c r="AB27" s="229"/>
+      <c r="AC27" s="229"/>
+      <c r="AD27" s="229"/>
+      <c r="AE27" s="230"/>
+      <c r="AF27" s="225"/>
+      <c r="AG27" s="226"/>
+      <c r="AH27" s="226"/>
+      <c r="AI27" s="227"/>
     </row>
     <row r="28" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="146"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="226"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="226"/>
+      <c r="P28" s="227"/>
+      <c r="Q28" s="228"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="229"/>
+      <c r="T28" s="229"/>
+      <c r="U28" s="229"/>
+      <c r="V28" s="229"/>
+      <c r="W28" s="229"/>
+      <c r="X28" s="229"/>
+      <c r="Y28" s="229"/>
+      <c r="Z28" s="229"/>
+      <c r="AA28" s="229"/>
+      <c r="AB28" s="229"/>
+      <c r="AC28" s="229"/>
+      <c r="AD28" s="229"/>
+      <c r="AE28" s="230"/>
+      <c r="AF28" s="225"/>
+      <c r="AG28" s="226"/>
+      <c r="AH28" s="226"/>
+      <c r="AI28" s="227"/>
     </row>
     <row r="29" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="146"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="227"/>
+      <c r="Q29" s="228"/>
+      <c r="R29" s="229"/>
+      <c r="S29" s="229"/>
+      <c r="T29" s="229"/>
+      <c r="U29" s="229"/>
+      <c r="V29" s="229"/>
+      <c r="W29" s="229"/>
+      <c r="X29" s="229"/>
+      <c r="Y29" s="229"/>
+      <c r="Z29" s="229"/>
+      <c r="AA29" s="229"/>
+      <c r="AB29" s="229"/>
+      <c r="AC29" s="229"/>
+      <c r="AD29" s="229"/>
+      <c r="AE29" s="230"/>
+      <c r="AF29" s="225"/>
+      <c r="AG29" s="226"/>
+      <c r="AH29" s="226"/>
+      <c r="AI29" s="227"/>
     </row>
     <row r="30" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="146"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="226"/>
+      <c r="M30" s="226"/>
+      <c r="N30" s="226"/>
+      <c r="O30" s="226"/>
+      <c r="P30" s="227"/>
+      <c r="Q30" s="228"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="229"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="229"/>
+      <c r="Y30" s="229"/>
+      <c r="Z30" s="229"/>
+      <c r="AA30" s="229"/>
+      <c r="AB30" s="229"/>
+      <c r="AC30" s="229"/>
+      <c r="AD30" s="229"/>
+      <c r="AE30" s="230"/>
+      <c r="AF30" s="225"/>
+      <c r="AG30" s="226"/>
+      <c r="AH30" s="226"/>
+      <c r="AI30" s="227"/>
     </row>
     <row r="31" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="146"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="227"/>
+      <c r="Q31" s="228"/>
+      <c r="R31" s="229"/>
+      <c r="S31" s="229"/>
+      <c r="T31" s="229"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="229"/>
+      <c r="W31" s="229"/>
+      <c r="X31" s="229"/>
+      <c r="Y31" s="229"/>
+      <c r="Z31" s="229"/>
+      <c r="AA31" s="229"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="229"/>
+      <c r="AD31" s="229"/>
+      <c r="AE31" s="230"/>
+      <c r="AF31" s="225"/>
+      <c r="AG31" s="226"/>
+      <c r="AH31" s="226"/>
+      <c r="AI31" s="227"/>
     </row>
     <row r="32" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="146"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="227"/>
+      <c r="Q32" s="228"/>
+      <c r="R32" s="229"/>
+      <c r="S32" s="229"/>
+      <c r="T32" s="229"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="229"/>
+      <c r="W32" s="229"/>
+      <c r="X32" s="229"/>
+      <c r="Y32" s="229"/>
+      <c r="Z32" s="229"/>
+      <c r="AA32" s="229"/>
+      <c r="AB32" s="229"/>
+      <c r="AC32" s="229"/>
+      <c r="AD32" s="229"/>
+      <c r="AE32" s="230"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="226"/>
+      <c r="AH32" s="226"/>
+      <c r="AI32" s="227"/>
     </row>
     <row r="33" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="146"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="226"/>
+      <c r="L33" s="226"/>
+      <c r="M33" s="226"/>
+      <c r="N33" s="226"/>
+      <c r="O33" s="226"/>
+      <c r="P33" s="227"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="229"/>
+      <c r="X33" s="229"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="230"/>
+      <c r="AF33" s="225"/>
+      <c r="AG33" s="226"/>
+      <c r="AH33" s="226"/>
+      <c r="AI33" s="227"/>
     </row>
     <row r="34" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -8196,6 +8196,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8220,161 +8375,6 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -8532,158 +8532,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="185" t="str">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Batch)
 BA10601/Intra-period project list output batch</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="185" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="247">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="185" t="str">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:35" s="89" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="96"/>
@@ -10191,14 +10191,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10208,6 +10200,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
@@ -10235,158 +10235,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="185" t="str">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Batch)
 BA10601/Intra-period project list output batch</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="185" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="247">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="185" t="str">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10401,86 +10401,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="250" t="s">
+      <c r="D8" s="284" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="179" t="s">
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="255"/>
-      <c r="X8" s="255"/>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="255"/>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="256"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="289"/>
+      <c r="Q8" s="289"/>
+      <c r="R8" s="289"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="289"/>
+      <c r="U8" s="289"/>
+      <c r="V8" s="289"/>
+      <c r="W8" s="289"/>
+      <c r="X8" s="289"/>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="289"/>
+      <c r="AA8" s="289"/>
+      <c r="AB8" s="289"/>
+      <c r="AC8" s="289"/>
+      <c r="AD8" s="289"/>
+      <c r="AE8" s="289"/>
+      <c r="AF8" s="289"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="290"/>
     </row>
     <row r="9" spans="1:35" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="268" t="s">
+      <c r="D9" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="179" t="s">
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="255"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="255"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="255"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="255"/>
-      <c r="T9" s="255"/>
-      <c r="U9" s="255"/>
-      <c r="V9" s="255"/>
-      <c r="W9" s="255"/>
-      <c r="X9" s="255"/>
-      <c r="Y9" s="255"/>
-      <c r="Z9" s="255"/>
-      <c r="AA9" s="255"/>
-      <c r="AB9" s="255"/>
-      <c r="AC9" s="255"/>
-      <c r="AD9" s="255"/>
-      <c r="AE9" s="255"/>
-      <c r="AF9" s="255"/>
-      <c r="AG9" s="255"/>
-      <c r="AH9" s="256"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="289"/>
+      <c r="O9" s="289"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="289"/>
+      <c r="T9" s="289"/>
+      <c r="U9" s="289"/>
+      <c r="V9" s="289"/>
+      <c r="W9" s="289"/>
+      <c r="X9" s="289"/>
+      <c r="Y9" s="289"/>
+      <c r="Z9" s="289"/>
+      <c r="AA9" s="289"/>
+      <c r="AB9" s="289"/>
+      <c r="AC9" s="289"/>
+      <c r="AD9" s="289"/>
+      <c r="AE9" s="289"/>
+      <c r="AF9" s="289"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="290"/>
     </row>
     <row r="10" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="257" t="s">
+      <c r="D10" s="252" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="258"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="259"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="85" t="s">
         <v>85</v>
       </c>
@@ -10512,10 +10512,10 @@
       <c r="AH10" s="87"/>
     </row>
     <row r="11" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="271"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="273"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="301"/>
       <c r="H11" s="88"/>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
@@ -10545,12 +10545,12 @@
       <c r="AH11" s="90"/>
     </row>
     <row r="12" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="257" t="s">
+      <c r="D12" s="252" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="258"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="259"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="254"/>
       <c r="H12" s="85" t="s">
         <v>14</v>
       </c>
@@ -10582,10 +10582,10 @@
       <c r="AH12" s="87"/>
     </row>
     <row r="13" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="271"/>
-      <c r="E13" s="272"/>
-      <c r="F13" s="272"/>
-      <c r="G13" s="273"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="300"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="301"/>
       <c r="H13" s="88"/>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
@@ -10615,10 +10615,10 @@
       <c r="AH13" s="90"/>
     </row>
     <row r="14" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="260"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="262"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="257"/>
       <c r="H14" s="91"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
@@ -10648,12 +10648,12 @@
       <c r="AH14" s="93"/>
     </row>
     <row r="15" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="257" t="s">
+      <c r="D15" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="259"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="254"/>
       <c r="H15" s="85" t="s">
         <v>14</v>
       </c>
@@ -10685,10 +10685,10 @@
       <c r="AH15" s="87"/>
     </row>
     <row r="16" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="260"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="262"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="257"/>
       <c r="H16" s="91"/>
       <c r="I16" s="92"/>
       <c r="J16" s="92"/>
@@ -10756,219 +10756,208 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D20" s="253" t="s">
+      <c r="D20" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="257" t="s">
+      <c r="E20" s="252" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="258"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="257" t="s">
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="258"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="258"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="258"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="257" t="s">
+      <c r="J20" s="253"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="253"/>
+      <c r="N20" s="253"/>
+      <c r="O20" s="253"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="252" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="259"/>
-      <c r="S20" s="265" t="s">
+      <c r="R20" s="254"/>
+      <c r="S20" s="293" t="s">
         <v>92</v>
       </c>
-      <c r="T20" s="266"/>
-      <c r="U20" s="266"/>
-      <c r="V20" s="267"/>
-      <c r="W20" s="257" t="s">
+      <c r="T20" s="294"/>
+      <c r="U20" s="294"/>
+      <c r="V20" s="295"/>
+      <c r="W20" s="252" t="s">
         <v>93</v>
       </c>
-      <c r="X20" s="258"/>
-      <c r="Y20" s="258"/>
-      <c r="Z20" s="258"/>
-      <c r="AA20" s="258"/>
-      <c r="AB20" s="258"/>
-      <c r="AC20" s="258"/>
-      <c r="AD20" s="258"/>
-      <c r="AE20" s="258"/>
-      <c r="AF20" s="258"/>
-      <c r="AG20" s="258"/>
-      <c r="AH20" s="259"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="254"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="254"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
-      <c r="H21" s="262"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="261"/>
-      <c r="K21" s="261"/>
-      <c r="L21" s="261"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="260"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="263" t="s">
+      <c r="D21" s="288"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="257"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="256"/>
+      <c r="M21" s="256"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="257"/>
+      <c r="Q21" s="255"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="291" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="264"/>
-      <c r="U21" s="263" t="s">
+      <c r="T21" s="292"/>
+      <c r="U21" s="291" t="s">
         <v>95</v>
       </c>
-      <c r="V21" s="264"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="261"/>
-      <c r="Y21" s="261"/>
-      <c r="Z21" s="261"/>
-      <c r="AA21" s="261"/>
-      <c r="AB21" s="261"/>
-      <c r="AC21" s="261"/>
-      <c r="AD21" s="261"/>
-      <c r="AE21" s="261"/>
-      <c r="AF21" s="261"/>
-      <c r="AG21" s="261"/>
-      <c r="AH21" s="262"/>
+      <c r="V21" s="292"/>
+      <c r="W21" s="255"/>
+      <c r="X21" s="256"/>
+      <c r="Y21" s="256"/>
+      <c r="Z21" s="256"/>
+      <c r="AA21" s="256"/>
+      <c r="AB21" s="256"/>
+      <c r="AC21" s="256"/>
+      <c r="AD21" s="256"/>
+      <c r="AE21" s="256"/>
+      <c r="AF21" s="256"/>
+      <c r="AG21" s="256"/>
+      <c r="AH21" s="257"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D22" s="275">
+      <c r="D22" s="259">
         <v>1</v>
       </c>
-      <c r="E22" s="291" t="s">
+      <c r="E22" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="292"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="278" t="s">
+      <c r="F22" s="276"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="279"/>
-      <c r="K22" s="279"/>
-      <c r="L22" s="279"/>
-      <c r="M22" s="279"/>
-      <c r="N22" s="279"/>
-      <c r="O22" s="279"/>
-      <c r="P22" s="280"/>
-      <c r="Q22" s="188" t="s">
+      <c r="J22" s="263"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="190"/>
-      <c r="S22" s="188" t="s">
+      <c r="R22" s="207"/>
+      <c r="S22" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="T22" s="190"/>
-      <c r="U22" s="188" t="s">
+      <c r="T22" s="207"/>
+      <c r="U22" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="V22" s="190"/>
-      <c r="W22" s="274" t="s">
+      <c r="V22" s="207"/>
+      <c r="W22" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="X22" s="274"/>
-      <c r="Y22" s="274"/>
-      <c r="Z22" s="274"/>
-      <c r="AA22" s="274"/>
-      <c r="AB22" s="274"/>
-      <c r="AC22" s="274"/>
-      <c r="AD22" s="274"/>
-      <c r="AE22" s="274"/>
-      <c r="AF22" s="274"/>
-      <c r="AG22" s="274"/>
-      <c r="AH22" s="274"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="258"/>
+      <c r="AD22" s="258"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D23" s="276"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="295"/>
-      <c r="H23" s="296"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="282"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="282"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="287"/>
-      <c r="R23" s="288"/>
-      <c r="S23" s="287"/>
-      <c r="T23" s="288"/>
-      <c r="U23" s="287"/>
-      <c r="V23" s="288"/>
-      <c r="W23" s="274"/>
-      <c r="X23" s="274"/>
-      <c r="Y23" s="274"/>
-      <c r="Z23" s="274"/>
-      <c r="AA23" s="274"/>
-      <c r="AB23" s="274"/>
-      <c r="AC23" s="274"/>
-      <c r="AD23" s="274"/>
-      <c r="AE23" s="274"/>
-      <c r="AF23" s="274"/>
-      <c r="AG23" s="274"/>
-      <c r="AH23" s="274"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="280"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="266"/>
+      <c r="K23" s="266"/>
+      <c r="L23" s="266"/>
+      <c r="M23" s="266"/>
+      <c r="N23" s="266"/>
+      <c r="O23" s="266"/>
+      <c r="P23" s="267"/>
+      <c r="Q23" s="271"/>
+      <c r="R23" s="272"/>
+      <c r="S23" s="271"/>
+      <c r="T23" s="272"/>
+      <c r="U23" s="271"/>
+      <c r="V23" s="272"/>
+      <c r="W23" s="258"/>
+      <c r="X23" s="258"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
+      <c r="AA23" s="258"/>
+      <c r="AB23" s="258"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="258"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D24" s="277"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="285"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="285"/>
-      <c r="M24" s="285"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="289"/>
-      <c r="R24" s="290"/>
-      <c r="S24" s="289"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="289"/>
-      <c r="V24" s="290"/>
-      <c r="W24" s="274"/>
-      <c r="X24" s="274"/>
-      <c r="Y24" s="274"/>
-      <c r="Z24" s="274"/>
-      <c r="AA24" s="274"/>
-      <c r="AB24" s="274"/>
-      <c r="AC24" s="274"/>
-      <c r="AD24" s="274"/>
-      <c r="AE24" s="274"/>
-      <c r="AF24" s="274"/>
-      <c r="AG24" s="274"/>
-      <c r="AH24" s="274"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="283"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="269"/>
+      <c r="K24" s="269"/>
+      <c r="L24" s="269"/>
+      <c r="M24" s="269"/>
+      <c r="N24" s="269"/>
+      <c r="O24" s="269"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="273"/>
+      <c r="R24" s="274"/>
+      <c r="S24" s="273"/>
+      <c r="T24" s="274"/>
+      <c r="U24" s="273"/>
+      <c r="V24" s="274"/>
+      <c r="W24" s="258"/>
+      <c r="X24" s="258"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -10985,12 +10974,23 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="1">
@@ -11027,158 +11027,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="185" t="str">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Batch)
 BA10601/Intra-period project list output batch</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:35" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="185" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="247">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:35" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="185" t="str">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11189,14 +11189,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -11206,6 +11198,14 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
@@ -11237,164 +11237,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="185" t="str">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Batch)
 BA10601/Intra-period project list output batch</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="185" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="247">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="240">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" s="142" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="185" t="str">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -11414,117 +11414,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="263" t="s">
+      <c r="D10" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="182" t="s">
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="184"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="229"/>
+      <c r="N10" s="229"/>
+      <c r="O10" s="229"/>
+      <c r="P10" s="229"/>
+      <c r="Q10" s="229"/>
+      <c r="R10" s="229"/>
+      <c r="S10" s="229"/>
+      <c r="T10" s="229"/>
+      <c r="U10" s="229"/>
+      <c r="V10" s="229"/>
+      <c r="W10" s="229"/>
+      <c r="X10" s="229"/>
+      <c r="Y10" s="229"/>
+      <c r="Z10" s="229"/>
+      <c r="AA10" s="229"/>
+      <c r="AB10" s="229"/>
+      <c r="AC10" s="229"/>
+      <c r="AD10" s="229"/>
+      <c r="AE10" s="229"/>
+      <c r="AF10" s="229"/>
+      <c r="AG10" s="229"/>
+      <c r="AH10" s="230"/>
       <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="307"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="307"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="182" t="s">
+      <c r="E11" s="336"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="336"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="184"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="229"/>
+      <c r="N11" s="229"/>
+      <c r="O11" s="229"/>
+      <c r="P11" s="229"/>
+      <c r="Q11" s="229"/>
+      <c r="R11" s="229"/>
+      <c r="S11" s="229"/>
+      <c r="T11" s="229"/>
+      <c r="U11" s="229"/>
+      <c r="V11" s="229"/>
+      <c r="W11" s="229"/>
+      <c r="X11" s="229"/>
+      <c r="Y11" s="229"/>
+      <c r="Z11" s="229"/>
+      <c r="AA11" s="229"/>
+      <c r="AB11" s="229"/>
+      <c r="AC11" s="229"/>
+      <c r="AD11" s="229"/>
+      <c r="AE11" s="229"/>
+      <c r="AF11" s="229"/>
+      <c r="AG11" s="229"/>
+      <c r="AH11" s="230"/>
       <c r="AI11" s="9"/>
     </row>
     <row r="12" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="263" t="s">
+      <c r="D12" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="307"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="307"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="182" t="s">
+      <c r="E12" s="336"/>
+      <c r="F12" s="336"/>
+      <c r="G12" s="336"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="184"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="229"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
+      <c r="R12" s="229"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="229"/>
+      <c r="V12" s="229"/>
+      <c r="W12" s="229"/>
+      <c r="X12" s="229"/>
+      <c r="Y12" s="229"/>
+      <c r="Z12" s="229"/>
+      <c r="AA12" s="229"/>
+      <c r="AB12" s="229"/>
+      <c r="AC12" s="229"/>
+      <c r="AD12" s="229"/>
+      <c r="AE12" s="229"/>
+      <c r="AF12" s="229"/>
+      <c r="AG12" s="229"/>
+      <c r="AH12" s="230"/>
       <c r="AI12" s="9"/>
     </row>
     <row r="13" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -11614,83 +11614,83 @@
       <c r="D22" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="268" t="s">
+      <c r="E22" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="269"/>
-      <c r="G22" s="270"/>
-      <c r="H22" s="265" t="s">
+      <c r="F22" s="297"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="266"/>
-      <c r="J22" s="267"/>
-      <c r="K22" s="268" t="s">
+      <c r="I22" s="294"/>
+      <c r="J22" s="295"/>
+      <c r="K22" s="296" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="269"/>
-      <c r="M22" s="269"/>
-      <c r="N22" s="269"/>
-      <c r="O22" s="269"/>
-      <c r="P22" s="269"/>
-      <c r="Q22" s="269"/>
-      <c r="R22" s="269"/>
-      <c r="S22" s="269"/>
-      <c r="T22" s="269"/>
-      <c r="U22" s="269"/>
-      <c r="V22" s="269"/>
-      <c r="W22" s="269"/>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="269"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="269"/>
-      <c r="AC22" s="269"/>
-      <c r="AD22" s="269"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="269"/>
-      <c r="AG22" s="269"/>
-      <c r="AH22" s="270"/>
+      <c r="L22" s="297"/>
+      <c r="M22" s="297"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="297"/>
+      <c r="P22" s="297"/>
+      <c r="Q22" s="297"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="297"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="297"/>
+      <c r="AF22" s="297"/>
+      <c r="AG22" s="297"/>
+      <c r="AH22" s="298"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="E23" s="182">
+      <c r="E23" s="228">
         <v>0</v>
       </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="182" t="s">
+      <c r="F23" s="229"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="182" t="s">
+      <c r="I23" s="229"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="184"/>
+      <c r="L23" s="229"/>
+      <c r="M23" s="229"/>
+      <c r="N23" s="229"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="229"/>
+      <c r="Q23" s="229"/>
+      <c r="R23" s="229"/>
+      <c r="S23" s="229"/>
+      <c r="T23" s="229"/>
+      <c r="U23" s="229"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="229"/>
+      <c r="Y23" s="229"/>
+      <c r="Z23" s="229"/>
+      <c r="AA23" s="229"/>
+      <c r="AB23" s="229"/>
+      <c r="AC23" s="229"/>
+      <c r="AD23" s="229"/>
+      <c r="AE23" s="229"/>
+      <c r="AF23" s="229"/>
+      <c r="AG23" s="229"/>
+      <c r="AH23" s="230"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
@@ -11698,7 +11698,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="D28" s="305" t="s">
+      <c r="D28" s="334" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -11720,17 +11720,17 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="15"/>
-      <c r="T28" s="334" t="s">
+      <c r="T28" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="329" t="s">
+      <c r="U28" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="330"/>
-      <c r="W28" s="330"/>
-      <c r="X28" s="330"/>
-      <c r="Y28" s="330"/>
-      <c r="Z28" s="331"/>
+      <c r="V28" s="306"/>
+      <c r="W28" s="306"/>
+      <c r="X28" s="306"/>
+      <c r="Y28" s="306"/>
+      <c r="Z28" s="307"/>
       <c r="AA28" s="13" t="s">
         <v>29</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="AH28" s="15"/>
     </row>
     <row r="29" spans="3:34" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="306"/>
+      <c r="D29" s="335"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -11759,7 +11759,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="320"/>
+      <c r="T29" s="311"/>
       <c r="U29" s="19" t="s">
         <v>30</v>
       </c>
@@ -11772,10 +11772,10 @@
       <c r="X29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Y29" s="327" t="s">
+      <c r="Y29" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" s="328"/>
+      <c r="Z29" s="304"/>
       <c r="AA29" s="16"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
@@ -11823,10 +11823,10 @@
       <c r="X30" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="Y30" s="332" t="s">
+      <c r="Y30" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="Z30" s="333"/>
+      <c r="Z30" s="309"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
@@ -11874,10 +11874,10 @@
       <c r="X31" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="332" t="s">
+      <c r="Y31" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="Z31" s="333"/>
+      <c r="Z31" s="309"/>
       <c r="AA31" s="24"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
@@ -11898,120 +11898,120 @@
       </c>
     </row>
     <row r="37" spans="3:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="323" t="s">
+      <c r="E37" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="323"/>
-      <c r="G37" s="323"/>
-      <c r="H37" s="323"/>
-      <c r="I37" s="323"/>
-      <c r="J37" s="323"/>
-      <c r="K37" s="323"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="323"/>
-      <c r="N37" s="323"/>
-      <c r="O37" s="323"/>
-      <c r="P37" s="323"/>
-      <c r="Q37" s="323"/>
-      <c r="R37" s="323"/>
-      <c r="S37" s="323"/>
-      <c r="T37" s="323"/>
-      <c r="U37" s="323"/>
-      <c r="V37" s="323"/>
-      <c r="W37" s="323"/>
-      <c r="X37" s="323"/>
-      <c r="Y37" s="323"/>
-      <c r="Z37" s="323"/>
-      <c r="AA37" s="323"/>
-      <c r="AB37" s="323"/>
-      <c r="AC37" s="323"/>
-      <c r="AD37" s="323"/>
-      <c r="AE37" s="323"/>
-      <c r="AF37" s="323"/>
-      <c r="AG37" s="323"/>
-      <c r="AH37" s="323"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="312"/>
+      <c r="H37" s="312"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="312"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="312"/>
+      <c r="M37" s="312"/>
+      <c r="N37" s="312"/>
+      <c r="O37" s="312"/>
+      <c r="P37" s="312"/>
+      <c r="Q37" s="312"/>
+      <c r="R37" s="312"/>
+      <c r="S37" s="312"/>
+      <c r="T37" s="312"/>
+      <c r="U37" s="312"/>
+      <c r="V37" s="312"/>
+      <c r="W37" s="312"/>
+      <c r="X37" s="312"/>
+      <c r="Y37" s="312"/>
+      <c r="Z37" s="312"/>
+      <c r="AA37" s="312"/>
+      <c r="AB37" s="312"/>
+      <c r="AC37" s="312"/>
+      <c r="AD37" s="312"/>
+      <c r="AE37" s="312"/>
+      <c r="AF37" s="312"/>
+      <c r="AG37" s="312"/>
+      <c r="AH37" s="312"/>
       <c r="AI37" s="25"/>
       <c r="AJ37" s="26"/>
     </row>
     <row r="38" spans="3:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="322" t="s">
+      <c r="E38" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="322" t="s">
+      <c r="F38" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="322"/>
-      <c r="H38" s="322"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="322"/>
-      <c r="K38" s="322"/>
-      <c r="L38" s="322" t="s">
+      <c r="G38" s="313"/>
+      <c r="H38" s="313"/>
+      <c r="I38" s="313"/>
+      <c r="J38" s="313"/>
+      <c r="K38" s="313"/>
+      <c r="L38" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="322"/>
-      <c r="N38" s="322"/>
-      <c r="O38" s="322"/>
-      <c r="P38" s="322"/>
-      <c r="Q38" s="320" t="s">
+      <c r="M38" s="313"/>
+      <c r="N38" s="313"/>
+      <c r="O38" s="313"/>
+      <c r="P38" s="313"/>
+      <c r="Q38" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="R38" s="322" t="s">
+      <c r="R38" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S38" s="322"/>
-      <c r="T38" s="322"/>
-      <c r="U38" s="322"/>
-      <c r="V38" s="322"/>
-      <c r="W38" s="323" t="s">
+      <c r="S38" s="313"/>
+      <c r="T38" s="313"/>
+      <c r="U38" s="313"/>
+      <c r="V38" s="313"/>
+      <c r="W38" s="312" t="s">
         <v>29</v>
       </c>
-      <c r="X38" s="323"/>
-      <c r="Y38" s="323"/>
-      <c r="Z38" s="323"/>
-      <c r="AA38" s="323"/>
-      <c r="AB38" s="323"/>
-      <c r="AC38" s="323"/>
-      <c r="AD38" s="323"/>
-      <c r="AE38" s="323"/>
-      <c r="AF38" s="323"/>
-      <c r="AG38" s="323"/>
-      <c r="AH38" s="323"/>
+      <c r="X38" s="312"/>
+      <c r="Y38" s="312"/>
+      <c r="Z38" s="312"/>
+      <c r="AA38" s="312"/>
+      <c r="AB38" s="312"/>
+      <c r="AC38" s="312"/>
+      <c r="AD38" s="312"/>
+      <c r="AE38" s="312"/>
+      <c r="AF38" s="312"/>
+      <c r="AG38" s="312"/>
+      <c r="AH38" s="312"/>
       <c r="AI38" s="27"/>
       <c r="AJ38" s="26"/>
     </row>
     <row r="39" spans="3:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="323"/>
-      <c r="F39" s="323"/>
-      <c r="G39" s="323"/>
-      <c r="H39" s="323"/>
-      <c r="I39" s="323"/>
-      <c r="J39" s="323"/>
-      <c r="K39" s="323"/>
-      <c r="L39" s="323"/>
-      <c r="M39" s="323"/>
-      <c r="N39" s="323"/>
-      <c r="O39" s="323"/>
-      <c r="P39" s="323"/>
-      <c r="Q39" s="321"/>
-      <c r="R39" s="323" t="s">
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="312"/>
+      <c r="K39" s="312"/>
+      <c r="L39" s="312"/>
+      <c r="M39" s="312"/>
+      <c r="N39" s="312"/>
+      <c r="O39" s="312"/>
+      <c r="P39" s="312"/>
+      <c r="Q39" s="326"/>
+      <c r="R39" s="312" t="s">
         <v>42</v>
       </c>
-      <c r="S39" s="323"/>
-      <c r="T39" s="323"/>
-      <c r="U39" s="323"/>
-      <c r="V39" s="323"/>
-      <c r="W39" s="323"/>
-      <c r="X39" s="323"/>
-      <c r="Y39" s="323"/>
-      <c r="Z39" s="323"/>
-      <c r="AA39" s="323"/>
-      <c r="AB39" s="323"/>
-      <c r="AC39" s="323"/>
-      <c r="AD39" s="323"/>
-      <c r="AE39" s="323"/>
-      <c r="AF39" s="323"/>
-      <c r="AG39" s="323"/>
-      <c r="AH39" s="323"/>
+      <c r="S39" s="312"/>
+      <c r="T39" s="312"/>
+      <c r="U39" s="312"/>
+      <c r="V39" s="312"/>
+      <c r="W39" s="312"/>
+      <c r="X39" s="312"/>
+      <c r="Y39" s="312"/>
+      <c r="Z39" s="312"/>
+      <c r="AA39" s="312"/>
+      <c r="AB39" s="312"/>
+      <c r="AC39" s="312"/>
+      <c r="AD39" s="312"/>
+      <c r="AE39" s="312"/>
+      <c r="AF39" s="312"/>
+      <c r="AG39" s="312"/>
+      <c r="AH39" s="312"/>
       <c r="AI39" s="27"/>
       <c r="AJ39" s="26"/>
     </row>
@@ -12019,14 +12019,14 @@
       <c r="E40" s="28">
         <v>1</v>
       </c>
-      <c r="F40" s="335" t="s">
+      <c r="F40" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="336"/>
-      <c r="H40" s="336"/>
-      <c r="I40" s="336"/>
-      <c r="J40" s="336"/>
-      <c r="K40" s="337"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="165"/>
       <c r="L40" s="29" t="s">
         <v>148</v>
       </c>
@@ -12037,25 +12037,25 @@
       <c r="Q40" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R40" s="301" t="s">
+      <c r="R40" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S40" s="301"/>
-      <c r="T40" s="301"/>
-      <c r="U40" s="301"/>
-      <c r="V40" s="301"/>
-      <c r="W40" s="301"/>
-      <c r="X40" s="301"/>
-      <c r="Y40" s="301"/>
-      <c r="Z40" s="301"/>
-      <c r="AA40" s="301"/>
-      <c r="AB40" s="301"/>
-      <c r="AC40" s="301"/>
-      <c r="AD40" s="301"/>
-      <c r="AE40" s="301"/>
-      <c r="AF40" s="301"/>
-      <c r="AG40" s="301"/>
-      <c r="AH40" s="301"/>
+      <c r="S40" s="302"/>
+      <c r="T40" s="302"/>
+      <c r="U40" s="302"/>
+      <c r="V40" s="302"/>
+      <c r="W40" s="302"/>
+      <c r="X40" s="302"/>
+      <c r="Y40" s="302"/>
+      <c r="Z40" s="302"/>
+      <c r="AA40" s="302"/>
+      <c r="AB40" s="302"/>
+      <c r="AC40" s="302"/>
+      <c r="AD40" s="302"/>
+      <c r="AE40" s="302"/>
+      <c r="AF40" s="302"/>
+      <c r="AG40" s="302"/>
+      <c r="AH40" s="302"/>
       <c r="AI40" s="27"/>
       <c r="AJ40" s="26"/>
     </row>
@@ -12063,14 +12063,14 @@
       <c r="E41" s="28">
         <v>2</v>
       </c>
-      <c r="F41" s="335" t="s">
+      <c r="F41" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="336"/>
-      <c r="H41" s="336"/>
-      <c r="I41" s="336"/>
-      <c r="J41" s="336"/>
-      <c r="K41" s="337"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="165"/>
       <c r="L41" s="29" t="s">
         <v>149</v>
       </c>
@@ -12081,25 +12081,25 @@
       <c r="Q41" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="301" t="s">
+      <c r="R41" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S41" s="301"/>
-      <c r="T41" s="301"/>
-      <c r="U41" s="301"/>
-      <c r="V41" s="301"/>
-      <c r="W41" s="301"/>
-      <c r="X41" s="301"/>
-      <c r="Y41" s="301"/>
-      <c r="Z41" s="301"/>
-      <c r="AA41" s="301"/>
-      <c r="AB41" s="301"/>
-      <c r="AC41" s="301"/>
-      <c r="AD41" s="301"/>
-      <c r="AE41" s="301"/>
-      <c r="AF41" s="301"/>
-      <c r="AG41" s="301"/>
-      <c r="AH41" s="301"/>
+      <c r="S41" s="302"/>
+      <c r="T41" s="302"/>
+      <c r="U41" s="302"/>
+      <c r="V41" s="302"/>
+      <c r="W41" s="302"/>
+      <c r="X41" s="302"/>
+      <c r="Y41" s="302"/>
+      <c r="Z41" s="302"/>
+      <c r="AA41" s="302"/>
+      <c r="AB41" s="302"/>
+      <c r="AC41" s="302"/>
+      <c r="AD41" s="302"/>
+      <c r="AE41" s="302"/>
+      <c r="AF41" s="302"/>
+      <c r="AG41" s="302"/>
+      <c r="AH41" s="302"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="34"/>
     </row>
@@ -12107,14 +12107,14 @@
       <c r="E42" s="28">
         <v>3</v>
       </c>
-      <c r="F42" s="335" t="s">
+      <c r="F42" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="336"/>
-      <c r="H42" s="336"/>
-      <c r="I42" s="336"/>
-      <c r="J42" s="336"/>
-      <c r="K42" s="337"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="165"/>
       <c r="L42" s="29" t="s">
         <v>150</v>
       </c>
@@ -12125,25 +12125,25 @@
       <c r="Q42" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R42" s="301" t="s">
+      <c r="R42" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S42" s="301"/>
-      <c r="T42" s="301"/>
-      <c r="U42" s="301"/>
-      <c r="V42" s="301"/>
-      <c r="W42" s="301"/>
-      <c r="X42" s="301"/>
-      <c r="Y42" s="301"/>
-      <c r="Z42" s="301"/>
-      <c r="AA42" s="301"/>
-      <c r="AB42" s="301"/>
-      <c r="AC42" s="301"/>
-      <c r="AD42" s="301"/>
-      <c r="AE42" s="301"/>
-      <c r="AF42" s="301"/>
-      <c r="AG42" s="301"/>
-      <c r="AH42" s="301"/>
+      <c r="S42" s="302"/>
+      <c r="T42" s="302"/>
+      <c r="U42" s="302"/>
+      <c r="V42" s="302"/>
+      <c r="W42" s="302"/>
+      <c r="X42" s="302"/>
+      <c r="Y42" s="302"/>
+      <c r="Z42" s="302"/>
+      <c r="AA42" s="302"/>
+      <c r="AB42" s="302"/>
+      <c r="AC42" s="302"/>
+      <c r="AD42" s="302"/>
+      <c r="AE42" s="302"/>
+      <c r="AF42" s="302"/>
+      <c r="AG42" s="302"/>
+      <c r="AH42" s="302"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="34"/>
     </row>
@@ -12151,14 +12151,14 @@
       <c r="E43" s="28">
         <v>4</v>
       </c>
-      <c r="F43" s="335" t="s">
+      <c r="F43" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="336"/>
-      <c r="K43" s="337"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="165"/>
       <c r="L43" s="29" t="s">
         <v>151</v>
       </c>
@@ -12169,25 +12169,25 @@
       <c r="Q43" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R43" s="301" t="s">
+      <c r="R43" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S43" s="301"/>
-      <c r="T43" s="301"/>
-      <c r="U43" s="301"/>
-      <c r="V43" s="301"/>
-      <c r="W43" s="301"/>
-      <c r="X43" s="301"/>
-      <c r="Y43" s="301"/>
-      <c r="Z43" s="301"/>
-      <c r="AA43" s="301"/>
-      <c r="AB43" s="301"/>
-      <c r="AC43" s="301"/>
-      <c r="AD43" s="301"/>
-      <c r="AE43" s="301"/>
-      <c r="AF43" s="301"/>
-      <c r="AG43" s="301"/>
-      <c r="AH43" s="301"/>
+      <c r="S43" s="302"/>
+      <c r="T43" s="302"/>
+      <c r="U43" s="302"/>
+      <c r="V43" s="302"/>
+      <c r="W43" s="302"/>
+      <c r="X43" s="302"/>
+      <c r="Y43" s="302"/>
+      <c r="Z43" s="302"/>
+      <c r="AA43" s="302"/>
+      <c r="AB43" s="302"/>
+      <c r="AC43" s="302"/>
+      <c r="AD43" s="302"/>
+      <c r="AE43" s="302"/>
+      <c r="AF43" s="302"/>
+      <c r="AG43" s="302"/>
+      <c r="AH43" s="302"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="34"/>
     </row>
@@ -12195,14 +12195,14 @@
       <c r="E44" s="28">
         <v>5</v>
       </c>
-      <c r="F44" s="335" t="s">
+      <c r="F44" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="336"/>
-      <c r="H44" s="336"/>
-      <c r="I44" s="336"/>
-      <c r="J44" s="336"/>
-      <c r="K44" s="337"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="165"/>
       <c r="L44" s="29" t="s">
         <v>152</v>
       </c>
@@ -12213,25 +12213,25 @@
       <c r="Q44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R44" s="301" t="s">
+      <c r="R44" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S44" s="301"/>
-      <c r="T44" s="301"/>
-      <c r="U44" s="301"/>
-      <c r="V44" s="301"/>
-      <c r="W44" s="301"/>
-      <c r="X44" s="301"/>
-      <c r="Y44" s="301"/>
-      <c r="Z44" s="301"/>
-      <c r="AA44" s="301"/>
-      <c r="AB44" s="301"/>
-      <c r="AC44" s="301"/>
-      <c r="AD44" s="301"/>
-      <c r="AE44" s="301"/>
-      <c r="AF44" s="301"/>
-      <c r="AG44" s="301"/>
-      <c r="AH44" s="301"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="302"/>
+      <c r="AA44" s="302"/>
+      <c r="AB44" s="302"/>
+      <c r="AC44" s="302"/>
+      <c r="AD44" s="302"/>
+      <c r="AE44" s="302"/>
+      <c r="AF44" s="302"/>
+      <c r="AG44" s="302"/>
+      <c r="AH44" s="302"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="34"/>
     </row>
@@ -12239,14 +12239,14 @@
       <c r="E45" s="28">
         <v>6</v>
       </c>
-      <c r="F45" s="335" t="s">
+      <c r="F45" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G45" s="336"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="336"/>
-      <c r="K45" s="337"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="165"/>
       <c r="L45" s="29" t="s">
         <v>153</v>
       </c>
@@ -12257,25 +12257,25 @@
       <c r="Q45" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R45" s="301" t="s">
+      <c r="R45" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S45" s="301"/>
-      <c r="T45" s="301"/>
-      <c r="U45" s="301"/>
-      <c r="V45" s="301"/>
-      <c r="W45" s="301"/>
-      <c r="X45" s="301"/>
-      <c r="Y45" s="301"/>
-      <c r="Z45" s="301"/>
-      <c r="AA45" s="301"/>
-      <c r="AB45" s="301"/>
-      <c r="AC45" s="301"/>
-      <c r="AD45" s="301"/>
-      <c r="AE45" s="301"/>
-      <c r="AF45" s="301"/>
-      <c r="AG45" s="301"/>
-      <c r="AH45" s="301"/>
+      <c r="S45" s="302"/>
+      <c r="T45" s="302"/>
+      <c r="U45" s="302"/>
+      <c r="V45" s="302"/>
+      <c r="W45" s="302"/>
+      <c r="X45" s="302"/>
+      <c r="Y45" s="302"/>
+      <c r="Z45" s="302"/>
+      <c r="AA45" s="302"/>
+      <c r="AB45" s="302"/>
+      <c r="AC45" s="302"/>
+      <c r="AD45" s="302"/>
+      <c r="AE45" s="302"/>
+      <c r="AF45" s="302"/>
+      <c r="AG45" s="302"/>
+      <c r="AH45" s="302"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="34"/>
     </row>
@@ -12283,14 +12283,14 @@
       <c r="E46" s="28">
         <v>7</v>
       </c>
-      <c r="F46" s="335" t="s">
+      <c r="F46" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="336"/>
-      <c r="H46" s="336"/>
-      <c r="I46" s="336"/>
-      <c r="J46" s="336"/>
-      <c r="K46" s="337"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="165"/>
       <c r="L46" s="29" t="s">
         <v>154</v>
       </c>
@@ -12301,25 +12301,25 @@
       <c r="Q46" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R46" s="301" t="s">
+      <c r="R46" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S46" s="301"/>
-      <c r="T46" s="301"/>
-      <c r="U46" s="301"/>
-      <c r="V46" s="301"/>
-      <c r="W46" s="301"/>
-      <c r="X46" s="301"/>
-      <c r="Y46" s="301"/>
-      <c r="Z46" s="301"/>
-      <c r="AA46" s="301"/>
-      <c r="AB46" s="301"/>
-      <c r="AC46" s="301"/>
-      <c r="AD46" s="301"/>
-      <c r="AE46" s="301"/>
-      <c r="AF46" s="301"/>
-      <c r="AG46" s="301"/>
-      <c r="AH46" s="301"/>
+      <c r="S46" s="302"/>
+      <c r="T46" s="302"/>
+      <c r="U46" s="302"/>
+      <c r="V46" s="302"/>
+      <c r="W46" s="302"/>
+      <c r="X46" s="302"/>
+      <c r="Y46" s="302"/>
+      <c r="Z46" s="302"/>
+      <c r="AA46" s="302"/>
+      <c r="AB46" s="302"/>
+      <c r="AC46" s="302"/>
+      <c r="AD46" s="302"/>
+      <c r="AE46" s="302"/>
+      <c r="AF46" s="302"/>
+      <c r="AG46" s="302"/>
+      <c r="AH46" s="302"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="34"/>
     </row>
@@ -12327,14 +12327,14 @@
       <c r="E47" s="28">
         <v>8</v>
       </c>
-      <c r="F47" s="335" t="s">
+      <c r="F47" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="336"/>
-      <c r="H47" s="336"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="336"/>
-      <c r="K47" s="337"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="165"/>
       <c r="L47" s="29" t="s">
         <v>155</v>
       </c>
@@ -12345,25 +12345,25 @@
       <c r="Q47" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R47" s="301" t="s">
+      <c r="R47" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S47" s="301"/>
-      <c r="T47" s="301"/>
-      <c r="U47" s="301"/>
-      <c r="V47" s="301"/>
-      <c r="W47" s="301"/>
-      <c r="X47" s="301"/>
-      <c r="Y47" s="301"/>
-      <c r="Z47" s="301"/>
-      <c r="AA47" s="301"/>
-      <c r="AB47" s="301"/>
-      <c r="AC47" s="301"/>
-      <c r="AD47" s="301"/>
-      <c r="AE47" s="301"/>
-      <c r="AF47" s="301"/>
-      <c r="AG47" s="301"/>
-      <c r="AH47" s="301"/>
+      <c r="S47" s="302"/>
+      <c r="T47" s="302"/>
+      <c r="U47" s="302"/>
+      <c r="V47" s="302"/>
+      <c r="W47" s="302"/>
+      <c r="X47" s="302"/>
+      <c r="Y47" s="302"/>
+      <c r="Z47" s="302"/>
+      <c r="AA47" s="302"/>
+      <c r="AB47" s="302"/>
+      <c r="AC47" s="302"/>
+      <c r="AD47" s="302"/>
+      <c r="AE47" s="302"/>
+      <c r="AF47" s="302"/>
+      <c r="AG47" s="302"/>
+      <c r="AH47" s="302"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="34"/>
     </row>
@@ -12371,14 +12371,14 @@
       <c r="E48" s="28">
         <v>9</v>
       </c>
-      <c r="F48" s="335" t="s">
+      <c r="F48" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="336"/>
-      <c r="H48" s="336"/>
-      <c r="I48" s="336"/>
-      <c r="J48" s="336"/>
-      <c r="K48" s="337"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="165"/>
       <c r="L48" s="29" t="s">
         <v>156</v>
       </c>
@@ -12389,25 +12389,25 @@
       <c r="Q48" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R48" s="301" t="s">
+      <c r="R48" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S48" s="301"/>
-      <c r="T48" s="301"/>
-      <c r="U48" s="301"/>
-      <c r="V48" s="301"/>
-      <c r="W48" s="301"/>
-      <c r="X48" s="301"/>
-      <c r="Y48" s="301"/>
-      <c r="Z48" s="301"/>
-      <c r="AA48" s="301"/>
-      <c r="AB48" s="301"/>
-      <c r="AC48" s="301"/>
-      <c r="AD48" s="301"/>
-      <c r="AE48" s="301"/>
-      <c r="AF48" s="301"/>
-      <c r="AG48" s="301"/>
-      <c r="AH48" s="301"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="302"/>
+      <c r="AB48" s="302"/>
+      <c r="AC48" s="302"/>
+      <c r="AD48" s="302"/>
+      <c r="AE48" s="302"/>
+      <c r="AF48" s="302"/>
+      <c r="AG48" s="302"/>
+      <c r="AH48" s="302"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="34"/>
     </row>
@@ -12415,14 +12415,14 @@
       <c r="E49" s="28">
         <v>10</v>
       </c>
-      <c r="F49" s="335" t="s">
+      <c r="F49" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="336"/>
-      <c r="H49" s="336"/>
-      <c r="I49" s="336"/>
-      <c r="J49" s="336"/>
-      <c r="K49" s="337"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="165"/>
       <c r="L49" s="29" t="s">
         <v>157</v>
       </c>
@@ -12433,25 +12433,25 @@
       <c r="Q49" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R49" s="301" t="s">
+      <c r="R49" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S49" s="301"/>
-      <c r="T49" s="301"/>
-      <c r="U49" s="301"/>
-      <c r="V49" s="301"/>
-      <c r="W49" s="301"/>
-      <c r="X49" s="301"/>
-      <c r="Y49" s="301"/>
-      <c r="Z49" s="301"/>
-      <c r="AA49" s="301"/>
-      <c r="AB49" s="301"/>
-      <c r="AC49" s="301"/>
-      <c r="AD49" s="301"/>
-      <c r="AE49" s="301"/>
-      <c r="AF49" s="301"/>
-      <c r="AG49" s="301"/>
-      <c r="AH49" s="301"/>
+      <c r="S49" s="302"/>
+      <c r="T49" s="302"/>
+      <c r="U49" s="302"/>
+      <c r="V49" s="302"/>
+      <c r="W49" s="302"/>
+      <c r="X49" s="302"/>
+      <c r="Y49" s="302"/>
+      <c r="Z49" s="302"/>
+      <c r="AA49" s="302"/>
+      <c r="AB49" s="302"/>
+      <c r="AC49" s="302"/>
+      <c r="AD49" s="302"/>
+      <c r="AE49" s="302"/>
+      <c r="AF49" s="302"/>
+      <c r="AG49" s="302"/>
+      <c r="AH49" s="302"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="34"/>
     </row>
@@ -12459,14 +12459,14 @@
       <c r="E50" s="28">
         <v>11</v>
       </c>
-      <c r="F50" s="335" t="s">
+      <c r="F50" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="336"/>
-      <c r="H50" s="336"/>
-      <c r="I50" s="336"/>
-      <c r="J50" s="336"/>
-      <c r="K50" s="337"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="165"/>
       <c r="L50" s="29" t="s">
         <v>158</v>
       </c>
@@ -12477,25 +12477,25 @@
       <c r="Q50" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R50" s="301" t="s">
+      <c r="R50" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S50" s="301"/>
-      <c r="T50" s="301"/>
-      <c r="U50" s="301"/>
-      <c r="V50" s="301"/>
-      <c r="W50" s="301"/>
-      <c r="X50" s="301"/>
-      <c r="Y50" s="301"/>
-      <c r="Z50" s="301"/>
-      <c r="AA50" s="301"/>
-      <c r="AB50" s="301"/>
-      <c r="AC50" s="301"/>
-      <c r="AD50" s="301"/>
-      <c r="AE50" s="301"/>
-      <c r="AF50" s="301"/>
-      <c r="AG50" s="301"/>
-      <c r="AH50" s="301"/>
+      <c r="S50" s="302"/>
+      <c r="T50" s="302"/>
+      <c r="U50" s="302"/>
+      <c r="V50" s="302"/>
+      <c r="W50" s="302"/>
+      <c r="X50" s="302"/>
+      <c r="Y50" s="302"/>
+      <c r="Z50" s="302"/>
+      <c r="AA50" s="302"/>
+      <c r="AB50" s="302"/>
+      <c r="AC50" s="302"/>
+      <c r="AD50" s="302"/>
+      <c r="AE50" s="302"/>
+      <c r="AF50" s="302"/>
+      <c r="AG50" s="302"/>
+      <c r="AH50" s="302"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="34"/>
     </row>
@@ -12503,14 +12503,14 @@
       <c r="E51" s="28">
         <v>12</v>
       </c>
-      <c r="F51" s="335" t="s">
+      <c r="F51" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="337"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="165"/>
       <c r="L51" s="29" t="s">
         <v>159</v>
       </c>
@@ -12521,25 +12521,25 @@
       <c r="Q51" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R51" s="301" t="s">
+      <c r="R51" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S51" s="301"/>
-      <c r="T51" s="301"/>
-      <c r="U51" s="301"/>
-      <c r="V51" s="301"/>
-      <c r="W51" s="301"/>
-      <c r="X51" s="301"/>
-      <c r="Y51" s="301"/>
-      <c r="Z51" s="301"/>
-      <c r="AA51" s="301"/>
-      <c r="AB51" s="301"/>
-      <c r="AC51" s="301"/>
-      <c r="AD51" s="301"/>
-      <c r="AE51" s="301"/>
-      <c r="AF51" s="301"/>
-      <c r="AG51" s="301"/>
-      <c r="AH51" s="301"/>
+      <c r="S51" s="302"/>
+      <c r="T51" s="302"/>
+      <c r="U51" s="302"/>
+      <c r="V51" s="302"/>
+      <c r="W51" s="302"/>
+      <c r="X51" s="302"/>
+      <c r="Y51" s="302"/>
+      <c r="Z51" s="302"/>
+      <c r="AA51" s="302"/>
+      <c r="AB51" s="302"/>
+      <c r="AC51" s="302"/>
+      <c r="AD51" s="302"/>
+      <c r="AE51" s="302"/>
+      <c r="AF51" s="302"/>
+      <c r="AG51" s="302"/>
+      <c r="AH51" s="302"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="34"/>
     </row>
@@ -12547,14 +12547,14 @@
       <c r="E52" s="28">
         <v>13</v>
       </c>
-      <c r="F52" s="335" t="s">
+      <c r="F52" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="336"/>
-      <c r="H52" s="336"/>
-      <c r="I52" s="336"/>
-      <c r="J52" s="336"/>
-      <c r="K52" s="337"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="165"/>
       <c r="L52" s="29" t="s">
         <v>160</v>
       </c>
@@ -12565,61 +12565,61 @@
       <c r="Q52" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R52" s="301" t="s">
+      <c r="R52" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="S52" s="301"/>
-      <c r="T52" s="301"/>
-      <c r="U52" s="301"/>
-      <c r="V52" s="301"/>
-      <c r="W52" s="301"/>
-      <c r="X52" s="301"/>
-      <c r="Y52" s="301"/>
-      <c r="Z52" s="301"/>
-      <c r="AA52" s="301"/>
-      <c r="AB52" s="301"/>
-      <c r="AC52" s="301"/>
-      <c r="AD52" s="301"/>
-      <c r="AE52" s="301"/>
-      <c r="AF52" s="301"/>
-      <c r="AG52" s="301"/>
-      <c r="AH52" s="301"/>
+      <c r="S52" s="302"/>
+      <c r="T52" s="302"/>
+      <c r="U52" s="302"/>
+      <c r="V52" s="302"/>
+      <c r="W52" s="302"/>
+      <c r="X52" s="302"/>
+      <c r="Y52" s="302"/>
+      <c r="Z52" s="302"/>
+      <c r="AA52" s="302"/>
+      <c r="AB52" s="302"/>
+      <c r="AC52" s="302"/>
+      <c r="AD52" s="302"/>
+      <c r="AE52" s="302"/>
+      <c r="AF52" s="302"/>
+      <c r="AG52" s="302"/>
+      <c r="AH52" s="302"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="34"/>
     </row>
     <row r="53" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="E53" s="265" t="s">
+      <c r="E53" s="293" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="266"/>
-      <c r="G53" s="266"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="266"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="266"/>
-      <c r="M53" s="266"/>
-      <c r="N53" s="266"/>
-      <c r="O53" s="266"/>
-      <c r="P53" s="266"/>
-      <c r="Q53" s="266"/>
-      <c r="R53" s="266"/>
-      <c r="S53" s="266"/>
-      <c r="T53" s="266"/>
-      <c r="U53" s="266"/>
-      <c r="V53" s="266"/>
-      <c r="W53" s="266"/>
-      <c r="X53" s="266"/>
-      <c r="Y53" s="266"/>
-      <c r="Z53" s="266"/>
-      <c r="AA53" s="266"/>
-      <c r="AB53" s="266"/>
-      <c r="AC53" s="266"/>
-      <c r="AD53" s="266"/>
-      <c r="AE53" s="266"/>
-      <c r="AF53" s="266"/>
-      <c r="AG53" s="266"/>
-      <c r="AH53" s="267"/>
+      <c r="F53" s="294"/>
+      <c r="G53" s="294"/>
+      <c r="H53" s="294"/>
+      <c r="I53" s="294"/>
+      <c r="J53" s="294"/>
+      <c r="K53" s="294"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="294"/>
+      <c r="N53" s="294"/>
+      <c r="O53" s="294"/>
+      <c r="P53" s="294"/>
+      <c r="Q53" s="294"/>
+      <c r="R53" s="294"/>
+      <c r="S53" s="294"/>
+      <c r="T53" s="294"/>
+      <c r="U53" s="294"/>
+      <c r="V53" s="294"/>
+      <c r="W53" s="294"/>
+      <c r="X53" s="294"/>
+      <c r="Y53" s="294"/>
+      <c r="Z53" s="294"/>
+      <c r="AA53" s="294"/>
+      <c r="AB53" s="294"/>
+      <c r="AC53" s="294"/>
+      <c r="AD53" s="294"/>
+      <c r="AE53" s="294"/>
+      <c r="AF53" s="294"/>
+      <c r="AG53" s="294"/>
+      <c r="AH53" s="295"/>
       <c r="AI53" s="34"/>
       <c r="AJ53" s="34"/>
     </row>
@@ -12766,38 +12766,38 @@
       <c r="AJ57" s="34"/>
     </row>
     <row r="58" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="E58" s="265" t="s">
+      <c r="E58" s="293" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="266"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="266"/>
-      <c r="L58" s="266"/>
-      <c r="M58" s="266"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="266"/>
-      <c r="P58" s="266"/>
-      <c r="Q58" s="266"/>
-      <c r="R58" s="266"/>
-      <c r="S58" s="266"/>
-      <c r="T58" s="266"/>
-      <c r="U58" s="266"/>
-      <c r="V58" s="266"/>
-      <c r="W58" s="266"/>
-      <c r="X58" s="266"/>
-      <c r="Y58" s="266"/>
-      <c r="Z58" s="266"/>
-      <c r="AA58" s="266"/>
-      <c r="AB58" s="266"/>
-      <c r="AC58" s="266"/>
-      <c r="AD58" s="266"/>
-      <c r="AE58" s="266"/>
-      <c r="AF58" s="266"/>
-      <c r="AG58" s="266"/>
-      <c r="AH58" s="267"/>
+      <c r="F58" s="294"/>
+      <c r="G58" s="294"/>
+      <c r="H58" s="294"/>
+      <c r="I58" s="294"/>
+      <c r="J58" s="294"/>
+      <c r="K58" s="294"/>
+      <c r="L58" s="294"/>
+      <c r="M58" s="294"/>
+      <c r="N58" s="294"/>
+      <c r="O58" s="294"/>
+      <c r="P58" s="294"/>
+      <c r="Q58" s="294"/>
+      <c r="R58" s="294"/>
+      <c r="S58" s="294"/>
+      <c r="T58" s="294"/>
+      <c r="U58" s="294"/>
+      <c r="V58" s="294"/>
+      <c r="W58" s="294"/>
+      <c r="X58" s="294"/>
+      <c r="Y58" s="294"/>
+      <c r="Z58" s="294"/>
+      <c r="AA58" s="294"/>
+      <c r="AB58" s="294"/>
+      <c r="AC58" s="294"/>
+      <c r="AD58" s="294"/>
+      <c r="AE58" s="294"/>
+      <c r="AF58" s="294"/>
+      <c r="AG58" s="294"/>
+      <c r="AH58" s="295"/>
       <c r="AI58" s="34"/>
       <c r="AJ58" s="34"/>
     </row>
@@ -13073,72 +13073,72 @@
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="E74" s="268" t="s">
+      <c r="E74" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="269"/>
-      <c r="G74" s="270"/>
-      <c r="H74" s="265" t="s">
+      <c r="F74" s="297"/>
+      <c r="G74" s="298"/>
+      <c r="H74" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="266"/>
-      <c r="J74" s="267"/>
-      <c r="K74" s="250" t="s">
+      <c r="I74" s="294"/>
+      <c r="J74" s="295"/>
+      <c r="K74" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="L74" s="251"/>
-      <c r="M74" s="251"/>
-      <c r="N74" s="252"/>
-      <c r="O74" s="324" t="s">
+      <c r="L74" s="285"/>
+      <c r="M74" s="285"/>
+      <c r="N74" s="286"/>
+      <c r="O74" s="327" t="s">
         <v>65</v>
       </c>
-      <c r="P74" s="324"/>
-      <c r="Q74" s="324"/>
-      <c r="R74" s="324"/>
-      <c r="S74" s="324"/>
-      <c r="T74" s="324"/>
-      <c r="U74" s="324"/>
-      <c r="V74" s="324"/>
-      <c r="W74" s="324"/>
-      <c r="X74" s="324"/>
-      <c r="Y74" s="324"/>
-      <c r="Z74" s="324"/>
-      <c r="AA74" s="324"/>
-      <c r="AB74" s="324"/>
+      <c r="P74" s="327"/>
+      <c r="Q74" s="327"/>
+      <c r="R74" s="327"/>
+      <c r="S74" s="327"/>
+      <c r="T74" s="327"/>
+      <c r="U74" s="327"/>
+      <c r="V74" s="327"/>
+      <c r="W74" s="327"/>
+      <c r="X74" s="327"/>
+      <c r="Y74" s="327"/>
+      <c r="Z74" s="327"/>
+      <c r="AA74" s="327"/>
+      <c r="AB74" s="327"/>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="E75" s="182">
+      <c r="E75" s="228">
         <v>0</v>
       </c>
-      <c r="F75" s="183"/>
-      <c r="G75" s="184"/>
-      <c r="H75" s="182" t="s">
+      <c r="F75" s="229"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="I75" s="183"/>
-      <c r="J75" s="184"/>
-      <c r="K75" s="300" t="s">
+      <c r="I75" s="229"/>
+      <c r="J75" s="230"/>
+      <c r="K75" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="L75" s="325"/>
-      <c r="M75" s="325"/>
-      <c r="N75" s="326"/>
-      <c r="O75" s="274" t="s">
+      <c r="L75" s="329"/>
+      <c r="M75" s="329"/>
+      <c r="N75" s="330"/>
+      <c r="O75" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="P75" s="274"/>
-      <c r="Q75" s="274"/>
-      <c r="R75" s="274"/>
-      <c r="S75" s="274"/>
-      <c r="T75" s="274"/>
-      <c r="U75" s="274"/>
-      <c r="V75" s="274"/>
-      <c r="W75" s="274"/>
-      <c r="X75" s="274"/>
-      <c r="Y75" s="274"/>
-      <c r="Z75" s="274"/>
-      <c r="AA75" s="274"/>
-      <c r="AB75" s="274"/>
+      <c r="P75" s="258"/>
+      <c r="Q75" s="258"/>
+      <c r="R75" s="258"/>
+      <c r="S75" s="258"/>
+      <c r="T75" s="258"/>
+      <c r="U75" s="258"/>
+      <c r="V75" s="258"/>
+      <c r="W75" s="258"/>
+      <c r="X75" s="258"/>
+      <c r="Y75" s="258"/>
+      <c r="Z75" s="258"/>
+      <c r="AA75" s="258"/>
+      <c r="AB75" s="258"/>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D77" s="50" t="s">
@@ -13433,43 +13433,43 @@
     </row>
     <row r="89" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D89" s="53"/>
-      <c r="F89" s="302" t="s">
+      <c r="F89" s="331" t="s">
         <v>72</v>
       </c>
-      <c r="G89" s="303"/>
-      <c r="H89" s="304"/>
-      <c r="I89" s="308" t="s">
+      <c r="G89" s="332"/>
+      <c r="H89" s="333"/>
+      <c r="I89" s="314" t="s">
         <v>73</v>
       </c>
-      <c r="J89" s="309"/>
-      <c r="K89" s="309"/>
-      <c r="L89" s="309"/>
-      <c r="M89" s="310"/>
-      <c r="N89" s="302" t="s">
+      <c r="J89" s="315"/>
+      <c r="K89" s="315"/>
+      <c r="L89" s="315"/>
+      <c r="M89" s="316"/>
+      <c r="N89" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="O89" s="303"/>
-      <c r="P89" s="304"/>
-      <c r="Q89" s="308" t="s">
+      <c r="O89" s="332"/>
+      <c r="P89" s="333"/>
+      <c r="Q89" s="314" t="s">
         <v>75</v>
       </c>
-      <c r="R89" s="309"/>
-      <c r="S89" s="309"/>
-      <c r="T89" s="309"/>
-      <c r="U89" s="309"/>
-      <c r="V89" s="309"/>
-      <c r="W89" s="309"/>
-      <c r="X89" s="309"/>
-      <c r="Y89" s="309"/>
-      <c r="Z89" s="309"/>
-      <c r="AA89" s="309"/>
-      <c r="AB89" s="309"/>
-      <c r="AC89" s="309"/>
-      <c r="AD89" s="309"/>
-      <c r="AE89" s="309"/>
-      <c r="AF89" s="309"/>
-      <c r="AG89" s="309"/>
-      <c r="AH89" s="310"/>
+      <c r="R89" s="315"/>
+      <c r="S89" s="315"/>
+      <c r="T89" s="315"/>
+      <c r="U89" s="315"/>
+      <c r="V89" s="315"/>
+      <c r="W89" s="315"/>
+      <c r="X89" s="315"/>
+      <c r="Y89" s="315"/>
+      <c r="Z89" s="315"/>
+      <c r="AA89" s="315"/>
+      <c r="AB89" s="315"/>
+      <c r="AC89" s="315"/>
+      <c r="AD89" s="315"/>
+      <c r="AE89" s="315"/>
+      <c r="AF89" s="315"/>
+      <c r="AG89" s="315"/>
+      <c r="AH89" s="316"/>
     </row>
     <row r="90" spans="2:70" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D90" s="56"/>
@@ -13610,15 +13610,15 @@
       <c r="AH93" s="53"/>
     </row>
     <row r="94" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="F94" s="311" t="s">
+      <c r="F94" s="317" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="313" t="s">
+      <c r="G94" s="319" t="s">
         <v>77</v>
       </c>
-      <c r="H94" s="313"/>
-      <c r="I94" s="313"/>
-      <c r="J94" s="313"/>
+      <c r="H94" s="319"/>
+      <c r="I94" s="319"/>
+      <c r="J94" s="319"/>
       <c r="K94" s="58" t="s">
         <v>78</v>
       </c>
@@ -13645,20 +13645,20 @@
       <c r="AB94" s="59"/>
       <c r="AC94" s="59"/>
       <c r="AD94" s="60"/>
-      <c r="AE94" s="314" t="s">
+      <c r="AE94" s="320" t="s">
         <v>29</v>
       </c>
-      <c r="AF94" s="315"/>
-      <c r="AG94" s="315"/>
-      <c r="AH94" s="316"/>
+      <c r="AF94" s="321"/>
+      <c r="AG94" s="321"/>
+      <c r="AH94" s="322"/>
       <c r="AI94" s="64"/>
     </row>
     <row r="95" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="F95" s="312"/>
-      <c r="G95" s="313"/>
-      <c r="H95" s="313"/>
-      <c r="I95" s="313"/>
-      <c r="J95" s="313"/>
+      <c r="F95" s="318"/>
+      <c r="G95" s="319"/>
+      <c r="H95" s="319"/>
+      <c r="I95" s="319"/>
+      <c r="J95" s="319"/>
       <c r="K95" s="65"/>
       <c r="L95" s="66"/>
       <c r="M95" s="66"/>
@@ -13683,10 +13683,10 @@
       <c r="AB95" s="66"/>
       <c r="AC95" s="66"/>
       <c r="AD95" s="67"/>
-      <c r="AE95" s="317"/>
-      <c r="AF95" s="318"/>
-      <c r="AG95" s="318"/>
-      <c r="AH95" s="319"/>
+      <c r="AE95" s="323"/>
+      <c r="AF95" s="324"/>
+      <c r="AG95" s="324"/>
+      <c r="AH95" s="325"/>
       <c r="AI95" s="64"/>
     </row>
     <row r="96" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13707,13 +13707,13 @@
       <c r="N96" s="76"/>
       <c r="O96" s="76"/>
       <c r="P96" s="77"/>
-      <c r="Q96" s="162" t="s">
+      <c r="Q96" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R96" s="163"/>
-      <c r="S96" s="163"/>
-      <c r="T96" s="163"/>
-      <c r="U96" s="163"/>
+      <c r="R96" s="162"/>
+      <c r="S96" s="162"/>
+      <c r="T96" s="162"/>
+      <c r="U96" s="162"/>
       <c r="V96" s="29" t="s">
         <v>148</v>
       </c>
@@ -13727,10 +13727,10 @@
       <c r="AB96" s="81"/>
       <c r="AC96" s="81"/>
       <c r="AD96" s="82"/>
-      <c r="AE96" s="300"/>
-      <c r="AF96" s="183"/>
-      <c r="AG96" s="183"/>
-      <c r="AH96" s="184"/>
+      <c r="AE96" s="328"/>
+      <c r="AF96" s="229"/>
+      <c r="AG96" s="229"/>
+      <c r="AH96" s="230"/>
       <c r="AI96" s="64"/>
     </row>
     <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13751,13 +13751,13 @@
       <c r="N97" s="76"/>
       <c r="O97" s="76"/>
       <c r="P97" s="77"/>
-      <c r="Q97" s="162" t="s">
+      <c r="Q97" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R97" s="163"/>
-      <c r="S97" s="163"/>
-      <c r="T97" s="163"/>
-      <c r="U97" s="163"/>
+      <c r="R97" s="162"/>
+      <c r="S97" s="162"/>
+      <c r="T97" s="162"/>
+      <c r="U97" s="162"/>
       <c r="V97" s="29" t="s">
         <v>149</v>
       </c>
@@ -13771,10 +13771,10 @@
       <c r="AB97" s="81"/>
       <c r="AC97" s="81"/>
       <c r="AD97" s="82"/>
-      <c r="AE97" s="300"/>
-      <c r="AF97" s="183"/>
-      <c r="AG97" s="183"/>
-      <c r="AH97" s="184"/>
+      <c r="AE97" s="328"/>
+      <c r="AF97" s="229"/>
+      <c r="AG97" s="229"/>
+      <c r="AH97" s="230"/>
     </row>
     <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="71">
@@ -13794,13 +13794,13 @@
       <c r="N98" s="76"/>
       <c r="O98" s="76"/>
       <c r="P98" s="77"/>
-      <c r="Q98" s="162" t="s">
+      <c r="Q98" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R98" s="163"/>
-      <c r="S98" s="163"/>
-      <c r="T98" s="163"/>
-      <c r="U98" s="163"/>
+      <c r="R98" s="162"/>
+      <c r="S98" s="162"/>
+      <c r="T98" s="162"/>
+      <c r="U98" s="162"/>
       <c r="V98" s="29" t="s">
         <v>150</v>
       </c>
@@ -13814,10 +13814,10 @@
       <c r="AB98" s="81"/>
       <c r="AC98" s="81"/>
       <c r="AD98" s="82"/>
-      <c r="AE98" s="300"/>
-      <c r="AF98" s="183"/>
-      <c r="AG98" s="183"/>
-      <c r="AH98" s="184"/>
+      <c r="AE98" s="328"/>
+      <c r="AF98" s="229"/>
+      <c r="AG98" s="229"/>
+      <c r="AH98" s="230"/>
     </row>
     <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="71">
@@ -13837,13 +13837,13 @@
       <c r="N99" s="76"/>
       <c r="O99" s="76"/>
       <c r="P99" s="77"/>
-      <c r="Q99" s="162" t="s">
+      <c r="Q99" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R99" s="163"/>
-      <c r="S99" s="163"/>
-      <c r="T99" s="163"/>
-      <c r="U99" s="163"/>
+      <c r="R99" s="162"/>
+      <c r="S99" s="162"/>
+      <c r="T99" s="162"/>
+      <c r="U99" s="162"/>
       <c r="V99" s="29" t="s">
         <v>151</v>
       </c>
@@ -13857,10 +13857,10 @@
       <c r="AB99" s="81"/>
       <c r="AC99" s="81"/>
       <c r="AD99" s="82"/>
-      <c r="AE99" s="300"/>
-      <c r="AF99" s="183"/>
-      <c r="AG99" s="183"/>
-      <c r="AH99" s="184"/>
+      <c r="AE99" s="328"/>
+      <c r="AF99" s="229"/>
+      <c r="AG99" s="229"/>
+      <c r="AH99" s="230"/>
       <c r="AI99" s="64"/>
     </row>
     <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13881,13 +13881,13 @@
       <c r="N100" s="76"/>
       <c r="O100" s="76"/>
       <c r="P100" s="77"/>
-      <c r="Q100" s="162" t="s">
+      <c r="Q100" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R100" s="163"/>
-      <c r="S100" s="163"/>
-      <c r="T100" s="163"/>
-      <c r="U100" s="163"/>
+      <c r="R100" s="162"/>
+      <c r="S100" s="162"/>
+      <c r="T100" s="162"/>
+      <c r="U100" s="162"/>
       <c r="V100" s="29" t="s">
         <v>152</v>
       </c>
@@ -13901,10 +13901,10 @@
       <c r="AB100" s="81"/>
       <c r="AC100" s="81"/>
       <c r="AD100" s="82"/>
-      <c r="AE100" s="300"/>
-      <c r="AF100" s="183"/>
-      <c r="AG100" s="183"/>
-      <c r="AH100" s="184"/>
+      <c r="AE100" s="328"/>
+      <c r="AF100" s="229"/>
+      <c r="AG100" s="229"/>
+      <c r="AH100" s="230"/>
     </row>
     <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F101" s="71">
@@ -13924,13 +13924,13 @@
       <c r="N101" s="76"/>
       <c r="O101" s="76"/>
       <c r="P101" s="77"/>
-      <c r="Q101" s="162" t="s">
+      <c r="Q101" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R101" s="163"/>
-      <c r="S101" s="163"/>
-      <c r="T101" s="163"/>
-      <c r="U101" s="163"/>
+      <c r="R101" s="162"/>
+      <c r="S101" s="162"/>
+      <c r="T101" s="162"/>
+      <c r="U101" s="162"/>
       <c r="V101" s="29" t="s">
         <v>153</v>
       </c>
@@ -13944,10 +13944,10 @@
       <c r="AB101" s="81"/>
       <c r="AC101" s="81"/>
       <c r="AD101" s="82"/>
-      <c r="AE101" s="300"/>
-      <c r="AF101" s="183"/>
-      <c r="AG101" s="183"/>
-      <c r="AH101" s="184"/>
+      <c r="AE101" s="328"/>
+      <c r="AF101" s="229"/>
+      <c r="AG101" s="229"/>
+      <c r="AH101" s="230"/>
     </row>
     <row r="102" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F102" s="71">
@@ -13967,13 +13967,13 @@
       <c r="N102" s="76"/>
       <c r="O102" s="76"/>
       <c r="P102" s="77"/>
-      <c r="Q102" s="162" t="s">
+      <c r="Q102" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R102" s="163"/>
-      <c r="S102" s="163"/>
-      <c r="T102" s="163"/>
-      <c r="U102" s="163"/>
+      <c r="R102" s="162"/>
+      <c r="S102" s="162"/>
+      <c r="T102" s="162"/>
+      <c r="U102" s="162"/>
       <c r="V102" s="29" t="s">
         <v>154</v>
       </c>
@@ -13987,10 +13987,10 @@
       <c r="AB102" s="81"/>
       <c r="AC102" s="81"/>
       <c r="AD102" s="82"/>
-      <c r="AE102" s="300"/>
-      <c r="AF102" s="183"/>
-      <c r="AG102" s="183"/>
-      <c r="AH102" s="184"/>
+      <c r="AE102" s="328"/>
+      <c r="AF102" s="229"/>
+      <c r="AG102" s="229"/>
+      <c r="AH102" s="230"/>
       <c r="AI102" s="64"/>
     </row>
     <row r="103" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14011,13 +14011,13 @@
       <c r="N103" s="76"/>
       <c r="O103" s="76"/>
       <c r="P103" s="77"/>
-      <c r="Q103" s="162" t="s">
+      <c r="Q103" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R103" s="163"/>
-      <c r="S103" s="163"/>
-      <c r="T103" s="163"/>
-      <c r="U103" s="163"/>
+      <c r="R103" s="162"/>
+      <c r="S103" s="162"/>
+      <c r="T103" s="162"/>
+      <c r="U103" s="162"/>
       <c r="V103" s="29" t="s">
         <v>155</v>
       </c>
@@ -14031,10 +14031,10 @@
       <c r="AB103" s="81"/>
       <c r="AC103" s="81"/>
       <c r="AD103" s="82"/>
-      <c r="AE103" s="300"/>
-      <c r="AF103" s="183"/>
-      <c r="AG103" s="183"/>
-      <c r="AH103" s="184"/>
+      <c r="AE103" s="328"/>
+      <c r="AF103" s="229"/>
+      <c r="AG103" s="229"/>
+      <c r="AH103" s="230"/>
     </row>
     <row r="104" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F104" s="71">
@@ -14054,13 +14054,13 @@
       <c r="N104" s="76"/>
       <c r="O104" s="76"/>
       <c r="P104" s="77"/>
-      <c r="Q104" s="162" t="s">
+      <c r="Q104" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R104" s="163"/>
-      <c r="S104" s="163"/>
-      <c r="T104" s="163"/>
-      <c r="U104" s="163"/>
+      <c r="R104" s="162"/>
+      <c r="S104" s="162"/>
+      <c r="T104" s="162"/>
+      <c r="U104" s="162"/>
       <c r="V104" s="29" t="s">
         <v>156</v>
       </c>
@@ -14074,10 +14074,10 @@
       <c r="AB104" s="81"/>
       <c r="AC104" s="81"/>
       <c r="AD104" s="82"/>
-      <c r="AE104" s="300"/>
-      <c r="AF104" s="183"/>
-      <c r="AG104" s="183"/>
-      <c r="AH104" s="184"/>
+      <c r="AE104" s="328"/>
+      <c r="AF104" s="229"/>
+      <c r="AG104" s="229"/>
+      <c r="AH104" s="230"/>
     </row>
     <row r="105" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F105" s="71">
@@ -14097,13 +14097,13 @@
       <c r="N105" s="76"/>
       <c r="O105" s="76"/>
       <c r="P105" s="77"/>
-      <c r="Q105" s="162" t="s">
+      <c r="Q105" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R105" s="163"/>
-      <c r="S105" s="163"/>
-      <c r="T105" s="163"/>
-      <c r="U105" s="163"/>
+      <c r="R105" s="162"/>
+      <c r="S105" s="162"/>
+      <c r="T105" s="162"/>
+      <c r="U105" s="162"/>
       <c r="V105" s="29" t="s">
         <v>157</v>
       </c>
@@ -14117,10 +14117,10 @@
       <c r="AB105" s="81"/>
       <c r="AC105" s="81"/>
       <c r="AD105" s="82"/>
-      <c r="AE105" s="300"/>
-      <c r="AF105" s="183"/>
-      <c r="AG105" s="183"/>
-      <c r="AH105" s="184"/>
+      <c r="AE105" s="328"/>
+      <c r="AF105" s="229"/>
+      <c r="AG105" s="229"/>
+      <c r="AH105" s="230"/>
       <c r="AI105" s="64"/>
     </row>
     <row r="106" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14141,13 +14141,13 @@
       <c r="N106" s="76"/>
       <c r="O106" s="76"/>
       <c r="P106" s="77"/>
-      <c r="Q106" s="162" t="s">
+      <c r="Q106" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R106" s="163"/>
-      <c r="S106" s="163"/>
-      <c r="T106" s="163"/>
-      <c r="U106" s="163"/>
+      <c r="R106" s="162"/>
+      <c r="S106" s="162"/>
+      <c r="T106" s="162"/>
+      <c r="U106" s="162"/>
       <c r="V106" s="29" t="s">
         <v>158</v>
       </c>
@@ -14161,10 +14161,10 @@
       <c r="AB106" s="81"/>
       <c r="AC106" s="81"/>
       <c r="AD106" s="82"/>
-      <c r="AE106" s="300"/>
-      <c r="AF106" s="183"/>
-      <c r="AG106" s="183"/>
-      <c r="AH106" s="184"/>
+      <c r="AE106" s="328"/>
+      <c r="AF106" s="229"/>
+      <c r="AG106" s="229"/>
+      <c r="AH106" s="230"/>
     </row>
     <row r="107" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F107" s="71">
@@ -14184,13 +14184,13 @@
       <c r="N107" s="76"/>
       <c r="O107" s="76"/>
       <c r="P107" s="77"/>
-      <c r="Q107" s="162" t="s">
+      <c r="Q107" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="163"/>
-      <c r="S107" s="163"/>
-      <c r="T107" s="163"/>
-      <c r="U107" s="163"/>
+      <c r="R107" s="162"/>
+      <c r="S107" s="162"/>
+      <c r="T107" s="162"/>
+      <c r="U107" s="162"/>
       <c r="V107" s="29" t="s">
         <v>159</v>
       </c>
@@ -14204,10 +14204,10 @@
       <c r="AB107" s="81"/>
       <c r="AC107" s="81"/>
       <c r="AD107" s="82"/>
-      <c r="AE107" s="300"/>
-      <c r="AF107" s="183"/>
-      <c r="AG107" s="183"/>
-      <c r="AH107" s="184"/>
+      <c r="AE107" s="328"/>
+      <c r="AF107" s="229"/>
+      <c r="AG107" s="229"/>
+      <c r="AH107" s="230"/>
     </row>
     <row r="108" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F108" s="71">
@@ -14227,13 +14227,13 @@
       <c r="N108" s="76"/>
       <c r="O108" s="76"/>
       <c r="P108" s="77"/>
-      <c r="Q108" s="162" t="s">
+      <c r="Q108" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="R108" s="163"/>
-      <c r="S108" s="163"/>
-      <c r="T108" s="163"/>
-      <c r="U108" s="163"/>
+      <c r="R108" s="162"/>
+      <c r="S108" s="162"/>
+      <c r="T108" s="162"/>
+      <c r="U108" s="162"/>
       <c r="V108" s="29" t="s">
         <v>160</v>
       </c>
@@ -14247,10 +14247,10 @@
       <c r="AB108" s="81"/>
       <c r="AC108" s="81"/>
       <c r="AD108" s="82"/>
-      <c r="AE108" s="300"/>
-      <c r="AF108" s="183"/>
-      <c r="AG108" s="183"/>
-      <c r="AH108" s="184"/>
+      <c r="AE108" s="328"/>
+      <c r="AF108" s="229"/>
+      <c r="AG108" s="229"/>
+      <c r="AH108" s="230"/>
       <c r="AI108" s="64"/>
     </row>
     <row r="111" spans="6:35" x14ac:dyDescent="0.2">
@@ -14292,6 +14292,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="O75:AB75"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="AE102:AH102"/>
+    <mergeCell ref="AE103:AH103"/>
+    <mergeCell ref="AE104:AH104"/>
+    <mergeCell ref="AE105:AH105"/>
+    <mergeCell ref="AE106:AH106"/>
+    <mergeCell ref="AE108:AH108"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="W50:AH50"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="W52:AH52"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="W51:AH51"/>
+    <mergeCell ref="E53:AH53"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="AE101:AH101"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="AE107:AH107"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:M89"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="W48:AH48"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="Q89:AH89"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:J95"/>
+    <mergeCell ref="AE94:AH95"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:AB74"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="R41:V41"/>
     <mergeCell ref="R46:V46"/>
     <mergeCell ref="W46:AH46"/>
     <mergeCell ref="E58:AH58"/>
@@ -14308,89 +14391,6 @@
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:K39"/>
     <mergeCell ref="L38:P39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="Q89:AH89"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:J95"/>
-    <mergeCell ref="AE94:AH95"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:AB74"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:M89"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="AE108:AH108"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="W50:AH50"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="W48:AH48"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="W52:AH52"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="W51:AH51"/>
-    <mergeCell ref="E53:AH53"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="AE101:AH101"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="AE107:AH107"/>
-    <mergeCell ref="AE102:AH102"/>
-    <mergeCell ref="AE103:AH103"/>
-    <mergeCell ref="AE104:AH104"/>
-    <mergeCell ref="AE105:AH105"/>
-    <mergeCell ref="AE106:AH106"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="O75:AB75"/>
-    <mergeCell ref="N89:P89"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
